--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8983270-486E-4372-8728-81A35E3A705F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40311E3-221F-47E7-AE7B-FDD912C85524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="540" windowWidth="37935" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37590" yWindow="1620" windowWidth="37935" windowHeight="15795" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -482,13 +480,13 @@
   </si>
   <si>
     <t>The  Da Vinci CDex Data Consumer  **SHALL**:
-1. Support at least on of the two FHIR transaction approaches for requesting information as defined in this Guide:
+1. Support at least one of the two FHIR transaction approaches for requesting information as defined in this Guide:
      1. Direct Query
      1. Task Based Approachs
-1. Support json source formats for all Da Vinci Notification interactions.
+1. Support json source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
 The  Da Vinci CDex Data Consumer  **SHOULD**:
-1. Support xml source formats for all Da Vinci Notification interactions.</t>
+1. Support xml source formats for all Da Vinci CDex interactions.</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1702,7 +1700,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1753,7 +1751,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1850,7 +1848,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2059,7 +2057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D29" sqref="D29"/>
+      <selection pane="topRight" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2281,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18:V18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40311E3-221F-47E7-AE7B-FDD912C85524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2A0CB-D3B5-9540-B330-E32BF4A6FC5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37590" yWindow="1620" windowWidth="37935" windowHeight="15795" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>Element</t>
   </si>
@@ -410,9 +410,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
   </si>
   <si>
     <t>HRex Task Data Request Profile</t>
@@ -488,12 +485,21 @@
 The  Da Vinci CDex Data Consumer  **SHOULD**:
 1. Support xml source formats for all Da Vinci CDex interactions.</t>
   </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
+  </si>
+  <si>
+    <t>CDex Task Data Request Profile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +570,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -610,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -638,6 +651,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -959,9 +973,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,24 +983,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -994,7 +1008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -1026,14 +1040,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1052,21 +1066,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1098,56 +1112,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1155,7 +1169,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1164,7 +1178,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1172,14 +1186,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1187,27 +1201,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1215,14 +1229,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1231,7 +1245,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1239,20 +1253,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1260,7 +1274,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1268,7 +1282,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1276,25 +1290,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1303,7 +1317,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1312,7 +1326,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1321,7 +1335,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1330,203 +1344,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1538,62 +1552,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1612,13 +1626,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -1642,7 +1656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1650,7 +1664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1672,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1680,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1674,15 +1688,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1703,12 +1717,12 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1730,7 +1744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -1750,19 +1764,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1776,27 +1790,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1806,32 +1820,45 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -1851,23 +1878,23 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +1971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="45.75" thickTop="1">
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1952,21 +1979,21 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1974,26 +2001,26 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="22:25" ht="18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="27" spans="22:25" ht="18">
+    <row r="27" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y27" s="7"/>
     </row>
   </sheetData>
@@ -2010,16 +2037,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2036,13 +2063,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2060,16 +2087,16 @@
       <selection pane="topRight" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2086,19 +2113,19 @@
         <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2117,7 +2144,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2136,7 +2163,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2155,7 +2182,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2174,7 +2201,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2193,7 +2220,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2212,7 +2239,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2231,7 +2258,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2250,7 +2277,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2279,17 +2306,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2301,9 +2328,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2311,25 +2338,25 @@
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2351,34 +2378,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2464,29 +2491,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2496,7 +2523,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2505,7 +2532,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2516,7 +2543,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2532,7 +2559,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2544,7 +2571,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2552,7 +2579,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2562,7 +2589,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2572,12 +2599,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2585,7 +2612,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2596,7 +2623,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2607,7 +2634,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2617,7 +2644,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2626,7 +2653,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2635,21 +2662,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2658,7 +2685,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2666,7 +2693,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2677,7 +2704,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2689,304 +2716,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2A0CB-D3B5-9540-B330-E32BF4A6FC5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F3B6A6-D1B4-4FCB-B562-AA444F49900D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23175" yWindow="1455" windowWidth="28005" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -28,12 +28,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
   <si>
     <t>Element</t>
   </si>
@@ -389,13 +391,7 @@
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
   </si>
   <si>
-    <t>data-consumer</t>
-  </si>
-  <si>
     <t>0.2.0</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer)  when requesting clinical data from the Data Source (often an EHR).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
@@ -456,12 +452,6 @@
   </si>
   <si>
     <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
-    <t>"\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\data-source.xlsx"</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/resources/resources-spreadsheet/data-consumer.xlsx'</t>
   </si>
   <si>
     <t>transaction</t>
@@ -494,12 +484,23 @@
   <si>
     <t>CDex Task Data Request Profile</t>
   </si>
+  <si>
+    <t>data-consumer-client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
+1. Requesting Clinical Data using a FHIR RESTful query
+1. POSTing a Task resource representing a request for clinical data
+1. POSTing a Subscription resource
+1. Polling a Task resource
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,15 +968,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,24 +984,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
@@ -1032,22 +1033,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1066,21 +1057,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1112,56 +1103,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1169,7 +1160,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1178,7 +1169,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1186,14 +1177,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1201,27 +1192,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1229,14 +1220,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1245,7 +1236,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1253,20 +1244,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1274,7 +1265,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1282,7 +1273,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1290,25 +1281,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1317,7 +1308,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1326,7 +1317,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1335,7 +1326,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1344,203 +1335,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" s="1" customFormat="1">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" s="1" customFormat="1">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" s="1" customFormat="1">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" s="1" customFormat="1">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" s="1" customFormat="1">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" s="1" customFormat="1">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" s="1" customFormat="1">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" s="1" customFormat="1">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" s="1" customFormat="1">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:10" s="1" customFormat="1">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:10" s="1" customFormat="1">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:10" s="1" customFormat="1">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:10" s="1" customFormat="1">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" s="1" customFormat="1">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:10" s="1" customFormat="1">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:10" s="1" customFormat="1">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:10" s="1" customFormat="1">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:10" s="1" customFormat="1">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:10" s="1" customFormat="1">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:10" s="1" customFormat="1">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:10" s="1" customFormat="1">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:10" s="1" customFormat="1">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:10" s="1" customFormat="1">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:10" s="1" customFormat="1">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:10" s="1" customFormat="1">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:16" s="1" customFormat="1">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:16" s="1" customFormat="1">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:16" s="1" customFormat="1">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:16" s="1" customFormat="1">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:16" s="1" customFormat="1">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:16" ht="15.75">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1552,62 +1543,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:16" s="1" customFormat="1">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:16" s="1" customFormat="1">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:16" s="1" customFormat="1">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:16" s="1" customFormat="1">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:16" s="1" customFormat="1">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:16" s="1" customFormat="1">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:16" s="1" customFormat="1">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:16" s="1" customFormat="1">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:16" s="1" customFormat="1">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:10" s="1" customFormat="1">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:10" s="1" customFormat="1">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1622,17 +1613,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1640,23 +1631,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1664,23 +1655,23 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="105" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1688,20 +1679,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1717,12 +1708,12 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1733,7 +1724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1744,12 +1735,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
@@ -1764,19 +1755,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1790,27 +1781,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1820,45 +1811,45 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -1878,23 +1869,23 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1971,7 +1962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="45.75" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1979,21 +1970,21 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -2001,26 +1992,26 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="22:25" ht="18">
       <c r="V24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="27" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="22:25" ht="18">
       <c r="Y27" s="7"/>
     </row>
   </sheetData>
@@ -2037,16 +2028,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2063,13 +2054,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2087,16 +2078,16 @@
       <selection pane="topRight" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2113,19 +2104,19 @@
         <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2144,7 +2135,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2154,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2182,7 +2173,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2201,7 +2192,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2220,7 +2211,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2239,7 +2230,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2258,7 +2249,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2277,7 +2268,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2310,13 +2301,13 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2328,9 +2319,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2338,25 +2329,25 @@
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2378,34 +2369,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2491,29 +2482,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2523,7 +2514,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2532,7 +2523,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2543,7 +2534,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2559,7 +2550,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2571,7 +2562,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2579,7 +2570,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2589,7 +2580,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2599,12 +2590,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2612,7 +2603,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" ht="18.95" customHeight="1">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2623,7 +2614,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" ht="18.95" customHeight="1">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2634,7 +2625,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" ht="18.95" customHeight="1">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2644,7 +2635,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" ht="18.95" customHeight="1">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2653,7 +2644,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" ht="18.95" customHeight="1">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2662,21 +2653,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" ht="18.95" customHeight="1">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" ht="18.95" customHeight="1">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" ht="18.95" customHeight="1">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2685,7 +2676,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" ht="18.95" customHeight="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2693,7 +2684,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" ht="18.95" customHeight="1">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2704,7 +2695,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" ht="18.95" customHeight="1">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2716,304 +2707,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" ht="18.95" customHeight="1">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" ht="18.95" customHeight="1">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" ht="18.95" customHeight="1">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" ht="18.95" customHeight="1">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:27" ht="18.95" customHeight="1">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:27" ht="18.95" customHeight="1">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:27" ht="18.95" customHeight="1">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:27" ht="18.95" customHeight="1">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:27" ht="18.95" customHeight="1">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F3B6A6-D1B4-4FCB-B562-AA444F49900D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE1598-5729-4A23-AFC6-BC478F9ACC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23175" yWindow="1455" windowWidth="28005" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -488,12 +488,11 @@
     <t>data-consumer-client</t>
   </si>
   <si>
-    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
 1. Requesting Clinical Data using a FHIR RESTful query
 1. POSTing a Task resource representing a request for clinical data
 1. POSTing a Subscription resource
-1. Polling a Task resource
-</t>
+1. Polling a Task resource</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1613,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE1598-5729-4A23-AFC6-BC478F9ACC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505AD1E-C716-D643-B8F5-810D6B8AE140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
   <si>
     <t>Element</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>conf_Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> US Core Implementation Guide STU 3</t>
   </si>
   <si>
     <t>doc</t>
@@ -402,9 +399,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Da Vinci Health Record Exchange (HRex) </t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
@@ -446,12 +440,6 @@
   </si>
   <si>
     <t>doc_Subscription</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
   </si>
   <si>
     <t>transaction</t>
@@ -494,12 +482,30 @@
 1. POSTing a Subscription resource
 1. Polling a Task resource</t>
   </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,12 +976,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,61 +989,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1056,21 +1062,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1102,56 +1108,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1159,7 +1165,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1168,7 +1174,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1176,14 +1182,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1191,27 +1197,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1219,14 +1225,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1235,7 +1241,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1243,20 +1249,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1264,7 +1270,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1272,7 +1278,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1280,25 +1286,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1307,7 +1313,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1316,7 +1322,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1325,7 +1331,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1334,203 +1340,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1542,62 +1548,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1612,17 +1618,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1630,68 +1636,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1701,47 +1707,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1758,15 +1775,15 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1780,27 +1797,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1810,45 +1827,45 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -1868,23 +1885,23 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1915,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -1961,7 +1978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="45.75" thickTop="1">
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1969,48 +1986,48 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="22:25" ht="18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="27" spans="22:25" ht="18">
+    <row r="27" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y27" s="7"/>
     </row>
   </sheetData>
@@ -2027,16 +2044,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2053,13 +2070,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2077,16 +2094,16 @@
       <selection pane="topRight" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2094,28 +2111,28 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2134,7 +2151,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2153,7 +2170,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2172,7 +2189,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2191,7 +2208,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2210,7 +2227,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2229,7 +2246,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2248,7 +2265,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +2284,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2300,13 +2317,13 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2314,13 +2331,13 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2328,25 +2345,25 @@
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2368,34 +2385,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2481,29 +2498,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2513,7 +2530,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2522,7 +2539,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2533,7 +2550,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2549,7 +2566,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2561,7 +2578,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2569,7 +2586,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2579,7 +2596,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2589,12 +2606,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2602,7 +2619,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2613,7 +2630,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2624,7 +2641,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2634,7 +2651,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2643,7 +2660,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2652,21 +2669,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2675,7 +2692,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2683,7 +2700,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2694,7 +2711,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2706,304 +2723,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505AD1E-C716-D643-B8F5-810D6B8AE140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB69F3-3994-0944-BB78-82C85959236D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,9 +399,6 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
     <t>HRex Task Data Request Profile</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   </si>
   <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1003,7 +1003,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1689,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1736,13 +1736,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
@@ -1799,25 +1799,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1829,16 +1829,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1986,18 +1986,18 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2008,18 +2008,18 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2120,16 +2120,16 @@
         <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB69F3-3994-0944-BB78-82C85959236D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF948E5-1874-FE47-93AC-A12CAADCAB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13620" yWindow="-21140" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
     <sheet name="meta" sheetId="1" r:id="rId2"/>
-    <sheet name="igs" sheetId="10" r:id="rId3"/>
-    <sheet name="profiles" sheetId="2" r:id="rId4"/>
-    <sheet name="resources" sheetId="4" r:id="rId5"/>
-    <sheet name="ops" sheetId="5" r:id="rId6"/>
-    <sheet name="interactions" sheetId="6" r:id="rId7"/>
-    <sheet name="rest_interactions" sheetId="11" r:id="rId8"/>
-    <sheet name="sps" sheetId="7" r:id="rId9"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId10"/>
+    <sheet name="capstatements" sheetId="13" r:id="rId3"/>
+    <sheet name="igs" sheetId="10" r:id="rId4"/>
+    <sheet name="profiles" sheetId="2" r:id="rId5"/>
+    <sheet name="resources" sheetId="4" r:id="rId6"/>
+    <sheet name="ops" sheetId="5" r:id="rId7"/>
+    <sheet name="interactions" sheetId="6" r:id="rId8"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId9"/>
+    <sheet name="sps" sheetId="7" r:id="rId10"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$B$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>Element</t>
   </si>
@@ -91,9 +92,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>ig</t>
-  </si>
-  <si>
     <t>mode</t>
   </si>
   <si>
@@ -238,9 +236,6 @@
     <t>imp_note</t>
   </si>
   <si>
-    <t>uri</t>
-  </si>
-  <si>
     <t>SHOULD</t>
   </si>
   <si>
@@ -277,12 +272,6 @@
     <t>conditionalRead</t>
   </si>
   <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
     <t>conditionalUpdate</t>
   </si>
   <si>
@@ -389,9 +378,6 @@
   </si>
   <si>
     <t>0.2.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
@@ -500,12 +486,63 @@
   <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
+  <si>
+    <t>suppress_may_sps</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>json,xml</t>
+  </si>
+  <si>
+    <t>format_conf</t>
+  </si>
+  <si>
+    <t>SHALL,SHOULD</t>
+  </si>
+  <si>
+    <t>patchFormat</t>
+  </si>
+  <si>
+    <t>application/json-patch+json</t>
+  </si>
+  <si>
+    <t>patchFormat_conf</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>instantiates</t>
+  </si>
+  <si>
+    <t>US Core Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>include_conf</t>
+  </si>
+  <si>
+    <t>revinclude</t>
+  </si>
+  <si>
+    <t>revinclude_conf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +620,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005C00"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -629,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,6 +707,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -973,17 +1024,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -991,59 +1042,67 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1052,1329 +1111,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="27" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y27" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="89" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
@@ -2414,88 +1150,88 @@
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="AB1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -3032,4 +1768,1412 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P82"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H41" s="5"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H42" s="5"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H43" s="5"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="11"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="11"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="11"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="11"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="11"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="11"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="11"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="11"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="11"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="11"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70" s="10"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H79" s="5"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A085B-7918-1B43-BDD7-DE64008365F6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="V24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="27" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y27" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF948E5-1874-FE47-93AC-A12CAADCAB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2AAC93-7619-3643-BEA8-306E93317697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13620" yWindow="-21140" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17560" yWindow="-20140" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -28,6 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
+    <definedName name="profile" localSheetId="4">profiles!$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
   <si>
     <t>Element</t>
   </si>
@@ -305,9 +306,6 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>conf_Coverage</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
@@ -357,9 +355,6 @@
   </si>
   <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>doc_Coverage</t>
   </si>
   <si>
     <t>doc_Bundle</t>
@@ -396,9 +391,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
-    <t>Required resource type to carry information regarding reason for requesting Clniical information for prior authorization.</t>
   </si>
   <si>
     <t>Required resource type to request and fetch clinical information from data source</t>
@@ -536,6 +528,27 @@
   </si>
   <si>
     <t>revinclude_conf</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
+  </si>
+  <si>
+    <t>PAS Claim</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
+  </si>
+  <si>
+    <t>conf_Claim</t>
+  </si>
+  <si>
+    <t>doc_Claim</t>
+  </si>
+  <si>
+    <t>Resource type to carry information regarding reason for requesting  1) attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
   </si>
 </sst>
 </file>
@@ -1042,64 +1055,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2338,7 +2351,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2360,23 +2373,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2384,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2392,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2400,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2408,36 +2421,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
@@ -2464,19 +2477,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -2488,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
@@ -2523,10 +2536,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2534,13 +2547,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2548,13 +2561,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2569,17 +2582,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="82.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2590,7 +2603,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2601,25 +2614,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
@@ -2632,22 +2645,37 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2682,11 +2710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2719,7 +2747,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -2770,60 +2798,62 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2895,7 +2925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:I10"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2912,28 +2942,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3135,13 +3165,13 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3151,7 +3181,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3159,7 +3189,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3167,7 +3197,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2AAC93-7619-3643-BEA8-306E93317697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9AF5B-E8DE-7240-B56F-966B3671ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17560" yWindow="-20140" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16540" yWindow="-19000" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2583,7 +2583,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9AF5B-E8DE-7240-B56F-966B3671ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1846DC-0A5F-C14F-B5C0-FB4FB16C94A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16540" yWindow="-19000" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -461,15 +461,9 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/</t>
-  </si>
-  <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
@@ -515,9 +509,6 @@
     <t>US Core Client CapabilityStatement</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
-  </si>
-  <si>
     <t>include</t>
   </si>
   <si>
@@ -549,6 +540,15 @@
   </si>
   <si>
     <t>Resource type to carry information regarding reason for requesting  1) attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2426,31 +2426,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2477,16 +2477,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>88</v>
@@ -2501,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2536,7 +2536,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -2553,7 +2553,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2582,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
@@ -2662,19 +2662,19 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2798,27 +2798,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
@@ -2942,10 +2942,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1846DC-0A5F-C14F-B5C0-FB4FB16C94A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B60532-6DF8-B245-B1B1-F6DBF6AA92D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="580" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
   <si>
     <t>Element</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>US Core Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
   </si>
   <si>
     <t>include</t>
@@ -2465,14 +2468,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A085B-7918-1B43-BDD7-DE64008365F6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2504,9 +2508,11 @@
         <v>137</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2520,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2553,7 +2559,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2567,7 +2573,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2798,27 +2804,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
@@ -2942,10 +2948,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B60532-6DF8-B245-B1B1-F6DBF6AA92D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B80D0A9-97BD-984A-8045-CE0EBF7C5DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="580" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="-20960" windowWidth="30040" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="155">
   <si>
     <t>Element</t>
   </si>
@@ -367,12 +367,6 @@
   </si>
   <si>
     <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
@@ -390,18 +384,12 @@
 HRex Coverage Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
     <t>Required resource type to request and fetch clinical information from data source</t>
   </si>
   <si>
     <t>Subscription</t>
   </si>
   <si>
-    <t>Required resource type to fetch Clinical Information from data source</t>
-  </si>
-  <si>
     <t>Required resource type to subscribe to data source</t>
   </si>
   <si>
@@ -429,16 +417,6 @@
     <t>history-system</t>
   </si>
   <si>
-    <t>The  Da Vinci CDex Data Consumer  **SHALL**:
-1. Support at least one of the two FHIR transaction approaches for requesting information as defined in this Guide:
-     1. Direct Query
-     1. Task Based Approachs
-1. Support json source formats for all Da Vinci CDex interactions.
-1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The  Da Vinci CDex Data Consumer  **SHOULD**:
-1. Support xml source formats for all Da Vinci CDex interactions.</t>
-  </si>
-  <si>
     <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
   </si>
   <si>
@@ -451,107 +429,138 @@
     <t>data-consumer-client</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
+  </si>
+  <si>
+    <t>suppress_may_sps</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>json,xml</t>
+  </si>
+  <si>
+    <t>format_conf</t>
+  </si>
+  <si>
+    <t>SHALL,SHOULD</t>
+  </si>
+  <si>
+    <t>patchFormat</t>
+  </si>
+  <si>
+    <t>application/json-patch+json</t>
+  </si>
+  <si>
+    <t>patchFormat_conf</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>instantiates</t>
+  </si>
+  <si>
+    <t>US Core Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>include_conf</t>
+  </si>
+  <si>
+    <t>revinclude</t>
+  </si>
+  <si>
+    <t>revinclude_conf</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
+  </si>
+  <si>
+    <t>PAS Claim</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
+  </si>
+  <si>
+    <t>conf_Claim</t>
+  </si>
+  <si>
+    <t>doc_Claim</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/patientcare</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Data Consumer Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-client</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
+  </si>
+  <si>
+    <t>Resource type to carry information regarding reason for requesting information to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
 1. Requesting Clinical Data using a FHIR RESTful query
 1. POSTing a Task resource representing a request for clinical data
 1. POSTing a Subscription resource
-1. Polling a Task resource</t>
-  </si>
-  <si>
-    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
-    <t>suppress_may_sps</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>json,xml</t>
-  </si>
-  <si>
-    <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
-  </si>
-  <si>
-    <t>patchFormat</t>
-  </si>
-  <si>
-    <t>application/json-patch+json</t>
-  </si>
-  <si>
-    <t>patchFormat_conf</t>
-  </si>
-  <si>
-    <t>canonical</t>
-  </si>
-  <si>
-    <t>imports</t>
-  </si>
-  <si>
-    <t>instantiates</t>
-  </si>
-  <si>
-    <t>US Core Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>include_conf</t>
-  </si>
-  <si>
-    <t>revinclude</t>
-  </si>
-  <si>
-    <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>Claim</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
-  </si>
-  <si>
-    <t>PAS Claim</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
-  </si>
-  <si>
-    <t>conf_Claim</t>
-  </si>
-  <si>
-    <t>doc_Claim</t>
-  </si>
-  <si>
-    <t>Resource type to carry information regarding reason for requesting  1) attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
+1. Polling a Task resource
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. 
+</t>
+  </si>
+  <si>
+    <t>The  Da Vinci CDex Data Consumer  **SHALL**:
+1. Support at least one of these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
+     1. Direct Query
+     1. Task Based Approach
+1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
+1. Support JSON source formats for all Da Vinci CDex interactions.
+1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
+The  Da Vinci CDex Data Consumer **SHOULD**:
+1. Support xml source formats for all Da Vinci CDex interactions.</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1052,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1070,7 +1079,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,12 +1119,12 @@
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -1134,7 +1143,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2353,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2376,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2384,7 +2393,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2400,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2416,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2424,39 +2433,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2466,31 +2475,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A085B-7918-1B43-BDD7-DE64008365F6}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>88</v>
@@ -2505,15 +2514,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2542,7 +2568,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -2553,13 +2579,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2567,13 +2593,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2589,7 +2615,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2620,25 +2646,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
@@ -2651,36 +2677,36 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2720,7 +2746,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2804,43 +2830,43 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -2848,18 +2874,18 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2881,7 +2907,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2931,7 +2957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2948,10 +2974,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
@@ -2960,16 +2986,16 @@
         <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3154,7 +3180,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3177,7 +3203,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3187,7 +3213,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3195,7 +3221,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3203,7 +3229,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B80D0A9-97BD-984A-8045-CE0EBF7C5DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B968DAA-E069-6640-A257-04B3F15E6108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-20960" windowWidth="30040" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12160" yWindow="-20280" windowWidth="30040" windowHeight="20920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -25,10 +25,13 @@
     <sheet name="sps" sheetId="7" r:id="rId10"/>
     <sheet name="sp_combos" sheetId="8" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
-    <definedName name="profile" localSheetId="4">profiles!$A$6</definedName>
+    <definedName name="profile" localSheetId="4">[1]profiles!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -750,6 +753,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="config"/>
+      <sheetName val="meta"/>
+      <sheetName val="capstatements"/>
+      <sheetName val="igs"/>
+      <sheetName val="profiles"/>
+      <sheetName val="resources"/>
+      <sheetName val="ops"/>
+      <sheetName val="interactions"/>
+      <sheetName val="rest_interactions"/>
+      <sheetName val="sps"/>
+      <sheetName val="sp_combos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2362,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2478,7 +2520,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2614,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2710,9 +2752,6 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G6" s="1"/>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" s="1"/>
     </row>
@@ -2746,7 +2785,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B968DAA-E069-6640-A257-04B3F15E6108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA9799-D430-4948-A41E-0834F111218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="-20280" windowWidth="30040" windowHeight="20920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12160" yWindow="-20280" windowWidth="30040" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
 The  Da Vinci CDex Data Consumer **SHOULD**:
 1. Support xml source formats for all Da Vinci CDex interactions.</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
 </sst>
 </file>
@@ -772,10 +772,10 @@
       <sheetName val="sp_combos"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
@@ -783,12 +783,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1120,8 +1120,8 @@
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
+      <c r="B3" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1161,12 +1161,12 @@
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2451,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,31 +2480,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2532,16 +2532,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>88</v>
@@ -2556,13 +2556,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2573,13 +2573,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2610,7 +2610,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -2627,7 +2627,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2638,10 +2638,10 @@
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2656,7 +2656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>99</v>
@@ -2736,19 +2736,19 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2869,27 +2869,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
@@ -2913,7 +2913,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -3013,10 +3013,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA9799-D430-4948-A41E-0834F111218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8451E1-7ED2-804C-B533-56D5A73B8440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="-20280" windowWidth="30040" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18920" yWindow="-21140" windowWidth="30040" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -540,14 +540,6 @@
     <t>Resource type to carry information regarding reason for requesting information to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
   </si>
   <si>
-    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
-1. Requesting Clinical Data using a FHIR RESTful query
-1. POSTing a Task resource representing a request for clinical data
-1. POSTing a Subscription resource
-1. Polling a Task resource
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. 
 </t>
   </si>
@@ -564,6 +556,13 @@
   </si>
   <si>
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
+1. Requesting Clinical Data using a FHIR RESTful query
+1. POSTing a Task resource representing a request for clinical data
+1. POSTing a Subscription resource
+1. Polling a Task resource</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1121,7 +1120,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2404,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2451,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2467,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2913,7 +2912,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8451E1-7ED2-804C-B533-56D5A73B8440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4451CFD-3C34-7943-9558-3B511788C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18920" yWindow="-21140" windowWidth="30040" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18920" yWindow="-21140" windowWidth="30040" windowHeight="20920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -435,15 +435,9 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
     <t>suppress_may_sps</t>
   </si>
   <si>
@@ -517,9 +511,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
   </si>
   <si>
     <t>http://www.hl7.org/Special/committees/patientcare</t>
@@ -564,12 +555,21 @@
 1. POSTing a Subscription resource
 1. Polling a Task resource</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +659,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -701,11 +709,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -736,9 +745,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1111,7 +1122,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1120,7 +1131,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1160,12 +1171,12 @@
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2403,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2434,7 +2445,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2450,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2466,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,31 +2490,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2531,16 +2542,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>88</v>
@@ -2555,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2572,13 +2583,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2593,13 +2604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.33203125" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
   </cols>
@@ -2609,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -2626,7 +2637,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2634,19 +2645,23 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CB84C727-891D-FD46-B678-86467D7F6F7B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A5FB987A-CAC7-F54A-9172-33E3F467A04C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2702,7 +2717,7 @@
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>99</v>
@@ -2735,19 +2750,19 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2868,27 +2883,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
@@ -2912,7 +2927,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -3012,10 +3027,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4451CFD-3C34-7943-9558-3B511788C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CA16C8-08B1-0F4D-A6DA-F0C477D8C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18920" yWindow="-21140" windowWidth="30040" windowHeight="20920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1760" windowWidth="30040" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -435,9 +435,6 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
     <t>suppress_may_sps</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
   </si>
   <si>
     <t>patchFormat</t>
@@ -533,6 +527,31 @@
   <si>
     <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. 
 </t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
+1. Requesting Clinical Data using a FHIR RESTful query
+1. POSTing a Task resource representing a request for clinical data
+1. POSTing a Subscription resource
+1. Polling a Task resource</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
+  <si>
+    <t>SHALL,MAY</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Consumer  **SHALL**:
@@ -542,27 +561,9 @@
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Support JSON source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The  Da Vinci CDex Data Consumer **SHOULD**:
-1. Support xml source formats for all Da Vinci CDex interactions.</t>
-  </si>
-  <si>
-    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
-1. Requesting Clinical Data using a FHIR RESTful query
-1. POSTing a Task resource representing a request for clinical data
-1. POSTing a Subscription resource
-1. Polling a Task resource</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+The  Da Vinci CDex Data Consumer **MAY**:
+1. Support XML source formats for all Da Vinci CDex interactions.
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1105,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1123,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1131,7 +1132,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1171,12 +1172,12 @@
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2414,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2445,7 +2446,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2461,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2477,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,31 +2491,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2542,16 +2543,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>88</v>
@@ -2566,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2583,13 +2584,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2604,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2620,7 +2621,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -2637,7 +2638,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2645,13 +2646,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2717,7 +2718,7 @@
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>99</v>
@@ -2750,19 +2751,19 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2883,27 +2884,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
@@ -2927,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -3027,10 +3028,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CA16C8-08B1-0F4D-A6DA-F0C477D8C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2E14A-9297-3148-A691-F605F670B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1760" windowWidth="30040" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
     <definedName name="profile" localSheetId="4">[1]profiles!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
   <si>
     <t>Element</t>
   </si>
@@ -370,11 +370,6 @@
   </si>
   <si>
     <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/2020Sep/security.html)
-</t>
   </si>
   <si>
     <t>HRex Task Data Request Profile</t>
@@ -483,18 +478,6 @@
     <t>revinclude_conf</t>
   </si>
   <si>
-    <t>Claim</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
-  </si>
-  <si>
-    <t>PAS Claim</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
-  </si>
-  <si>
     <t>conf_Claim</t>
   </si>
   <si>
@@ -532,47 +515,102 @@
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
+  <si>
+    <t>SHALL,MAY</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
+  </si>
+  <si>
     <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
 1. Requesting Clinical Data using a FHIR RESTful query
-1. POSTing a Task resource representing a request for clinical data
-1. POSTing a Subscription resource
-1. Polling a Task resource</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
-  </si>
-  <si>
-    <t>SHALL,MAY</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
-  </si>
-  <si>
-    <t>The  Da Vinci CDex Data Consumer  **SHALL**:
-1. Support at least one of these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
+2. Requesting Attachments
+3. POSTing a Task resource representing a request for clinical data
+4. POSTing a Subscription resource
+5. Polling a Task resource</t>
+  </si>
+  <si>
+    <t>1. Support at least one of these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
      1. Direct Query
      1. Task Based Approach
-1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
-1. Support JSON source formats for all Da Vinci CDex interactions.
-1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
+     1. Attachments
+2. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
+3. Support JSON source formats for all Da Vinci CDex interactions.
+4. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
 The  Da Vinci CDex Data Consumer **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/security.html)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-task-data-request.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
+  </si>
+  <si>
+    <t>CDex Task Attachment Request Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-task-attachment-request.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
+  </si>
+  <si>
+    <t>CDex Signature Bundle Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-signature-bundle.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
+  </si>
+  <si>
+    <t>CDex Patient Demographics Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-patient-demographics.html</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Required resource type to supply patient demographic data when requesting attachments.</t>
+  </si>
+  <si>
+    <t>!Claim</t>
+  </si>
+  <si>
+    <t>conf_Patient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -668,6 +706,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,10 +764,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -724,29 +776,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1123,7 +1182,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1132,7 +1191,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1172,12 +1231,12 @@
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2415,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2438,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2446,7 +2505,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2478,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2486,36 +2545,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2543,16 +2602,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>88</v>
@@ -2567,13 +2626,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2584,13 +2643,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2621,7 +2680,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -2632,13 +2691,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2646,13 +2705,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2671,106 +2730,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="82.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>161</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2800,7 +2899,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2884,40 +2983,40 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="48" x14ac:dyDescent="0.2">
@@ -2928,18 +3027,29 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -3007,52 +3117,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3063,15 +3180,18 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>25</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3079,23 +3199,26 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
@@ -3103,18 +3226,21 @@
       <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
@@ -3122,13 +3248,16 @@
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3139,15 +3268,18 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>25</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3160,13 +3292,16 @@
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3179,13 +3314,16 @@
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3198,13 +3336,16 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3217,11 +3358,14 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3257,7 +3401,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3267,7 +3411,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3275,7 +3419,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3283,7 +3427,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2E14A-9297-3148-A691-F605F670B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADB923-69CE-554D-A2C9-B3BB4CF93860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48780" yWindow="2620" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="160">
   <si>
     <t>Element</t>
   </si>
@@ -306,9 +306,6 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
@@ -372,25 +369,12 @@
     <t>HL7 International - Patient Care Work Group</t>
   </si>
   <si>
-    <t>HRex Task Data Request Profile</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
-    <t xml:space="preserve">
-HRex Coverage Profile</t>
-  </si>
-  <si>
-    <t>Required resource type to request and fetch clinical information from data source</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
-    <t>Required resource type to subscribe to data source</t>
-  </si>
-  <si>
     <t>conf_Subscription</t>
   </si>
   <si>
@@ -415,9 +399,6 @@
     <t>history-system</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
   </si>
   <si>
@@ -478,12 +459,6 @@
     <t>revinclude_conf</t>
   </si>
   <si>
-    <t>conf_Claim</t>
-  </si>
-  <si>
-    <t>doc_Claim</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
   </si>
   <si>
@@ -493,44 +468,100 @@
     <t>http://www.hl7.org/Special/committees/patientcare</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Data Consumer Client CapabilityStatement</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-client</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
-    <t>Resource type to carry information regarding reason for requesting information to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. 
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
+  <si>
+    <t>SHALL,MAY</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/security.html)
 </t>
   </si>
   <si>
-    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
-  </si>
-  <si>
-    <t>SHALL,MAY</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Client* mode when requesting clinical data from the Data Source (often an EHR) during a clinical data exchange.  This includes the following interactions:
+    <t xml:space="preserve"> StructureDefinition-cdex-task-data-request.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
+  </si>
+  <si>
+    <t>CDex Task Attachment Request Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-task-attachment-request.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
+  </si>
+  <si>
+    <t>CDex Signature Bundle Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-signature-bundle.html</t>
+  </si>
+  <si>
+    <t>CDex Patient Demographics Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-patient-demographics.html</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Required resource type to supply patient demographic data when requesting attachments.</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>Required resource type to fetch provenance along with clinical information</t>
+  </si>
+  <si>
+    <t>Required resource type to subscribe to data source for Task-based requests.</t>
+  </si>
+  <si>
+    <t>conf_Provenance</t>
+  </si>
+  <si>
+    <t>doc_Provenance</t>
+  </si>
+  <si>
+    <t>!Patient</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
+  </si>
+  <si>
+    <t>Required resource type to request and fetch clinical information from data source using Task-based requests. **SHALL** support *CDex Task Data Request Profile* and/or *CDex Task Attachment Request Profile*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. **SHALL** support CDex Signature Bundle Profile for signed Bundles.
+</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer  in *Client* mode when requesting clinical data from the Data Source  during clinical data exchange. The capabilities include one or more of the following interactions:
 1. Requesting Clinical Data using a FHIR RESTful query
 2. Requesting Attachments
 3. POSTing a Task resource representing a request for clinical data
@@ -538,72 +569,33 @@
 5. Polling a Task resource</t>
   </si>
   <si>
-    <t>1. Support at least one of these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
+    <t>The  Da Vinci CDex Data Consumer Client  **SHALL**:
+1. Support at least one of the CDex approaches for exchanging clinical information:
      1. Direct Query
-     1. Task Based Approach
+     1. Task-Based Approach
      1. Attachments
 2. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 3. Support JSON source formats for all Da Vinci CDex interactions.
-4. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The  Da Vinci CDex Data Consumer **MAY**:
+4. Declare a CapabilityStatement identifying the scenarios, transactions, and profiles supported.
+The  Da Vinci CDex Data Consumer Client **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
-   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/security.html)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-task-data-request.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
-  </si>
-  <si>
-    <t>CDex Task Attachment Request Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-task-attachment-request.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
-  </si>
-  <si>
-    <t>CDex Signature Bundle Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-signature-bundle.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
-  </si>
-  <si>
-    <t>CDex Patient Demographics Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-patient-demographics.html</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Required resource type to supply patient demographic data when requesting attachments.</t>
-  </si>
-  <si>
-    <t>!Claim</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -764,8 +756,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -776,36 +768,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1179,64 +1169,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2474,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2497,31 +2487,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2529,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2537,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,36 +2535,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2602,19 +2592,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -2626,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2643,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2680,10 +2670,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2691,13 +2681,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2705,13 +2695,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2728,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2751,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>9</v>
@@ -2761,129 +2751,97 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="A2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="E2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>161</v>
-      </c>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2893,13 +2851,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2932,7 +2890,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -2983,82 +2941,80 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="65" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="27" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y27" s="7"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="V23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3117,59 +3073,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3177,87 +3127,79 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3265,21 +3207,19 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3289,19 +3229,17 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3311,19 +3249,17 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3333,19 +3269,17 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3355,17 +3289,15 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,13 +3327,13 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3411,7 +3343,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3419,7 +3351,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3427,7 +3359,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADB923-69CE-554D-A2C9-B3BB4CF93860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4AE21-A52E-344F-A233-8FF4CFE02EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48780" yWindow="2620" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58180" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
   <si>
     <t>Element</t>
   </si>
@@ -497,42 +497,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-task-data-request.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
   </si>
   <si>
     <t>CDex Task Attachment Request Profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-task-attachment-request.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
   </si>
   <si>
     <t>CDex Signature Bundle Profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-signature-bundle.html</t>
-  </si>
-  <si>
     <t>CDex Patient Demographics Profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-patient-demographics.html</t>
-  </si>
-  <si>
     <t>Patient</t>
   </si>
   <si>
     <t>Required resource type to supply patient demographic data when requesting attachments.</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>Provenance</t>
   </si>
   <si>
@@ -546,27 +531,10 @@
   </si>
   <si>
     <t>doc_Provenance</t>
-  </si>
-  <si>
-    <t>!Patient</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
-  </si>
-  <si>
-    <t>Required resource type to request and fetch clinical information from data source using Task-based requests. **SHALL** support *CDex Task Data Request Profile* and/or *CDex Task Attachment Request Profile*.</t>
   </si>
   <si>
     <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. **SHALL** support CDex Signature Bundle Profile for signed Bundles.
 </t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer  in *Client* mode when requesting clinical data from the Data Source  during clinical data exchange. The capabilities include one or more of the following interactions:
-1. Requesting Clinical Data using a FHIR RESTful query
-2. Requesting Attachments
-3. POSTing a Task resource representing a request for clinical data
-4. POSTing a Subscription resource
-5. Polling a Task resource</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Consumer Client  **SHALL**:
@@ -580,6 +548,63 @@
 The  Da Vinci CDex Data Consumer Client **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-practitionerrole</t>
+  </si>
+  <si>
+    <t>CDex PractitionerRole Profile</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-practitionerrole.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-patient-demographics.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-signature-bundle.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-task-attachment-request.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-task-data-request.html</t>
+  </si>
+  <si>
+    <t>PractitionerRole</t>
+  </si>
+  <si>
+    <t>conf_Patient</t>
+  </si>
+  <si>
+    <t>doc_Patient</t>
+  </si>
+  <si>
+    <t>conf_PractitionerRole</t>
+  </si>
+  <si>
+    <t>doc_PractitionerRole</t>
+  </si>
+  <si>
+    <t>Required resource type to request and fetch clinical information using Task-based query and for requesting attachments.
+1. If Da Vinci CDex Data Consumer Client supports Task-based query, they **SHALL** support the *CDex Task Data Request Profile*.
+2. If Da Vinci CDex Data Consumer Client supports requesting attachments, they **SHALL** support the following profiles: 
+   - *CDex Task Attachment Request Profile*
+   - *CDex Patient Demographic Profile*
+   - *CDex PractitionerRequest Profile*</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer  in *Client* mode when requesting clinical data from the Data Source  during clinical data exchange. The capabilities include one or more of the following interactions:
+1. Requesting and Fetching Clinical Data using a FHIR RESTful query
+2. Requesting and Fetching Clinical Data using a Task-based query including:
+   -  Polling or Subscribing for Task update notifications
+1. Requesting Attachments</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -759,8 +784,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -772,10 +796,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -793,9 +816,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1151,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1159,76 +1182,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1250,641 +1272,470 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="12"/>
+    <row r="2" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="C7" s="6"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="1"/>
+      <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="J9"/>
-      <c r="X9"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="1"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="J10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="1"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="10"/>
     </row>
     <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="J11"/>
-      <c r="O11"/>
-      <c r="X11"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="1"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="10"/>
     </row>
     <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="E12"/>
-      <c r="J12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="1"/>
+      <c r="AA12" s="10"/>
     </row>
     <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="J13"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="J14"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="12"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="E16"/>
-      <c r="J16"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="J17"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="J19"/>
-      <c r="X19"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="X20"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="E22"/>
-      <c r="Z22"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="E23"/>
-      <c r="J23" s="6"/>
-      <c r="Y23"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="E24"/>
-      <c r="J24"/>
-      <c r="Y24"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="E25"/>
-      <c r="J25" s="6"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="J26"/>
-      <c r="X26"/>
-      <c r="Y26" s="5"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="J27"/>
-      <c r="Q27"/>
-      <c r="X27"/>
-      <c r="Y27" s="5"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="J28"/>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29"/>
-      <c r="J29"/>
-      <c r="X29"/>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-      <c r="J30"/>
-      <c r="X30"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31"/>
-      <c r="J31"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA35" s="12"/>
-    </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="12"/>
-    </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="12"/>
-    </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="12"/>
-    </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA39" s="12"/>
-    </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="12"/>
-    </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="12"/>
-    </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="12"/>
-    </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="12"/>
-    </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA45" s="12"/>
-    </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA46" s="12"/>
-    </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="12"/>
-    </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="12"/>
-    </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="12"/>
-    </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="12"/>
-    </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N51" s="14"/>
-      <c r="AA51" s="12"/>
-    </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="12"/>
-    </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="12"/>
-    </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA54" s="12"/>
-    </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="12"/>
-    </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-    </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA57" s="12"/>
-    </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="12"/>
-    </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V59" s="7"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-    </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N60" s="14"/>
-      <c r="AA60" s="12"/>
-    </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="12"/>
-    </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="12"/>
-    </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA63" s="12"/>
-    </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="12"/>
-    </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="12"/>
-    </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="12"/>
-    </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="12"/>
-    </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA68" s="12"/>
-    </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="12"/>
-    </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="12"/>
-    </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="12"/>
-    </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA72" s="12"/>
-    </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="12"/>
-    </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="12"/>
-    </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="12"/>
-    </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="12"/>
-    </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="12"/>
-    </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="12"/>
-    </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="12"/>
-    </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="12"/>
-    </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="12"/>
-    </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="12"/>
-    </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="12"/>
-    </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="12"/>
-    </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="12"/>
-    </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="12"/>
-    </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="12"/>
-    </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="12"/>
-    </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="12"/>
-    </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="12"/>
-    </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="12"/>
-    </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="12"/>
-    </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y93" s="5"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="4"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="23" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="10"/>
+    </row>
+    <row r="25" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="5"/>
+      <c r="AA25" s="10"/>
+    </row>
+    <row r="26" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="4"/>
+      <c r="AA26" s="10"/>
+    </row>
+    <row r="27" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="35" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="10"/>
+    </row>
+    <row r="38" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="10"/>
+    </row>
+    <row r="39" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="10"/>
+    </row>
+    <row r="40" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="10"/>
+    </row>
+    <row r="46" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="10"/>
+    </row>
+    <row r="47" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="10"/>
+    </row>
+    <row r="48" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="12"/>
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="52" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="10"/>
+    </row>
+    <row r="53" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="10"/>
+    </row>
+    <row r="54" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="10"/>
+    </row>
+    <row r="55" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="10"/>
+    </row>
+    <row r="56" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+    </row>
+    <row r="57" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="10"/>
+    </row>
+    <row r="58" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="10"/>
+    </row>
+    <row r="59" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="6"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+    </row>
+    <row r="60" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="12"/>
+      <c r="AA60" s="10"/>
+    </row>
+    <row r="61" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="10"/>
+    </row>
+    <row r="62" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="10"/>
+    </row>
+    <row r="63" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="10"/>
+    </row>
+    <row r="64" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="10"/>
+    </row>
+    <row r="65" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="10"/>
+    </row>
+    <row r="66" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="10"/>
+    </row>
+    <row r="67" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="10"/>
+    </row>
+    <row r="68" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="10"/>
+    </row>
+    <row r="69" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="10"/>
+    </row>
+    <row r="70" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="10"/>
+    </row>
+    <row r="71" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="10"/>
+    </row>
+    <row r="72" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="10"/>
+    </row>
+    <row r="73" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="10"/>
+    </row>
+    <row r="74" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="10"/>
+    </row>
+    <row r="75" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="10"/>
+    </row>
+    <row r="76" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="10"/>
+    </row>
+    <row r="77" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="10"/>
+    </row>
+    <row r="78" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="10"/>
+    </row>
+    <row r="79" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="10"/>
+    </row>
+    <row r="80" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="10"/>
+    </row>
+    <row r="81" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="10"/>
+    </row>
+    <row r="82" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="10"/>
+    </row>
+    <row r="83" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="10"/>
+    </row>
+    <row r="84" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="10"/>
+    </row>
+    <row r="86" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="10"/>
+    </row>
+    <row r="87" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="10"/>
+    </row>
+    <row r="88" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="10"/>
+    </row>
+    <row r="89" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="10"/>
+    </row>
+    <row r="90" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="10"/>
+    </row>
+    <row r="91" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="10"/>
+    </row>
+    <row r="92" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="10"/>
+    </row>
+    <row r="93" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y93" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
@@ -1899,7 +1750,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
@@ -1910,549 +1761,416 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" customWidth="1"/>
+    <col min="10" max="10" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H41" s="4"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H43" s="4"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70" s="9"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H79" s="4"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2464,14 +2182,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2490,19 +2208,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2510,8 +2228,8 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>158</v>
+      <c r="B5" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2526,47 +2244,47 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>159</v>
+      <c r="B7" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2580,7 +2298,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2591,57 +2309,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="17" t="b">
+      <c r="B2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="b">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2661,49 +2378,48 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2718,130 +2434,124 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="B3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="E5" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
+      <c r="E6" s="22" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2854,26 +2564,26 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="95" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2883,138 +2593,149 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
       <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="65" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:25" ht="234" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>157</v>
+      <c r="C3" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>151</v>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>147</v>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>150</v>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="V23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
     </row>
     <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,13 +2778,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3073,231 +2794,269 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="3" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3316,52 +3075,51 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4AE21-A52E-344F-A233-8FF4CFE02EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9AEE05-DCA2-A740-AF77-ABF3FC93217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58180" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35040" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
   <si>
     <t>Element</t>
   </si>
@@ -535,19 +535,6 @@
   <si>
     <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. **SHALL** support CDex Signature Bundle Profile for signed Bundles.
 </t>
-  </si>
-  <si>
-    <t>The  Da Vinci CDex Data Consumer Client  **SHALL**:
-1. Support at least one of the CDex approaches for exchanging clinical information:
-     1. Direct Query
-     1. Task-Based Approach
-     1. Attachments
-2. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
-3. Support JSON source formats for all Da Vinci CDex interactions.
-4. Declare a CapabilityStatement identifying the scenarios, transactions, and profiles supported.
-The  Da Vinci CDex Data Consumer Client **MAY**:
-1. Support XML source formats for all Da Vinci CDex interactions.
-   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
@@ -597,23 +584,122 @@
    - *CDex PractitionerRequest Profile*</t>
   </si>
   <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>The  Da Vinci CDex Data Consumer Client  **SHALL**:
+1. Support at least one of the CDex approaches for exchanging clinical information:
+     1. Direct Query
+     2. Task-Based Approach
+     3. Attachments
+2. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
+3. Support JSON source formats for all Da Vinci CDex interactions.
+4. Declare a CapabilityStatement identifying the scenarios, transactions, and profiles supported.
+    - Follow the guidelines for [Conforming to CDex Task Based Approach](task-based-conformance.html) if supporting this exchange.
+    - Follow the guidelines for [Conforming to CDex Attachments](attachments-conformance.html) if supporting this exchange.
+The  Da Vinci CDex Data Consumer Client **MAY**:
+1. Support XML source formats for all Da Vinci CDex interactions.
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-sdc-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>CDex SDC QuestionnaireResponse Profile</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-sdc-questionnaireresponse.html</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/StructureDefinition/dtr-sdc-questionnaire</t>
+  </si>
+  <si>
+    <t>DTR SDC Questionnaire</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/StructureDefinition/dtr-sdc-questionnaire-adapt</t>
+  </si>
+  <si>
+    <t>DTR SDC Questionnaire for adaptive form</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 1.1.0-ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|1.1.0-ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/2022May/index.html</t>
+  </si>
+  <si>
+    <t>Required resource type to  when requesting data or attachments using Questionnaire</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required resource type to fetch completed questionnaires from data source. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**SHALL**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> support CDex SDC QuestionnaireResponse Profile for signed QuestionnaireResponse.</t>
+    </r>
+  </si>
+  <si>
+    <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>doc_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>conf_Questionnaire</t>
+  </si>
+  <si>
+    <t>doc_Questionnaire</t>
+  </si>
+  <si>
     <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer  in *Client* mode when requesting clinical data from the Data Source  during clinical data exchange. The capabilities include one or more of the following interactions:
 1. Requesting and Fetching Clinical Data using a FHIR RESTful query
 2. Requesting and Fetching Clinical Data using a Task-based query including:
    -  Polling or Subscribing for Task update notifications
-1. Requesting Attachments</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
+3. Requesting Attachments
+   - Requesting Attachments Using Attachments Codes
+   - Requesting Attachments Using Questionnaires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -737,6 +823,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -781,10 +880,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -792,33 +891,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -878,7 +982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1166,7 +1270,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1177,7 +1281,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2182,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2317,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2229,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2245,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2369,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2423,10 +2527,25 @@
         <v>52</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CB84C727-891D-FD46-B678-86467D7F6F7B}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{A5FB987A-CAC7-F54A-9172-33E3F467A04C}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{ED365816-6A83-4F46-8D71-00D2C595E013}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2434,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2474,7 +2593,7 @@
         <v>106</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>52</v>
@@ -2493,7 +2612,7 @@
         <v>138</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>52</v>
@@ -2510,7 +2629,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>52</v>
@@ -2520,14 +2639,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>151</v>
+      <c r="A5" t="s">
+        <v>150</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>11</v>
@@ -2537,20 +2656,71 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2563,11 +2733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2841,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="48" x14ac:dyDescent="0.2">
@@ -2685,7 +2855,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2696,7 +2866,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -2707,7 +2877,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -2720,7 +2890,7 @@
     </row>
     <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -2729,12 +2899,37 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="3:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y26" s="6"/>
     </row>
   </sheetData>
@@ -2748,7 +2943,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2794,11 +2989,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2808,9 +3003,11 @@
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2839,19 +3036,31 @@
         <v>148</v>
       </c>
       <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
         <v>160</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>161</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2873,8 +3082,14 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2896,8 +3111,14 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2919,8 +3140,14 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2942,8 +3169,14 @@
       <c r="L5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2965,8 +3198,14 @@
       <c r="L6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2988,8 +3227,14 @@
       <c r="L7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3011,8 +3256,14 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3034,8 +3285,14 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3055,6 +3312,12 @@
         <v>25</v>
       </c>
       <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9AEE05-DCA2-A740-AF77-ABF3FC93217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294BB416-BC58-054A-A9D6-0BD131F2968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34040" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="191">
   <si>
     <t>Element</t>
   </si>
@@ -441,12 +441,6 @@
     <t>instantiates</t>
   </si>
   <si>
-    <t>US Core Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
-  </si>
-  <si>
     <t>include</t>
   </si>
   <si>
@@ -459,19 +453,7 @@
     <t>revinclude_conf</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
     <t>http://www.hl7.org/Special/committees/patientcare</t>
-  </si>
-  <si>
-    <t>Data Consumer Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-client</t>
   </si>
   <si>
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
@@ -582,9 +564,6 @@
    - *CDex Task Attachment Request Profile*
    - *CDex Patient Demographic Profile*
    - *CDex PractitionerRequest Profile*</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Consumer Client  **SHALL**:
@@ -614,28 +593,7 @@
     <t>QuestionnaireResponse</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/StructureDefinition/dtr-sdc-questionnaire</t>
-  </si>
-  <si>
-    <t>DTR SDC Questionnaire</t>
-  </si>
-  <si>
     <t>Questionnaire</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/StructureDefinition/dtr-sdc-questionnaire-adapt</t>
-  </si>
-  <si>
-    <t>DTR SDC Questionnaire for adaptive form</t>
-  </si>
-  <si>
-    <t>Documentation Templates and Rules 1.1.0-ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|1.1.0-ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/2022May/index.html</t>
   </si>
   <si>
     <t>Required resource type to  when requesting data or attachments using Questionnaire</t>
@@ -685,14 +643,81 @@
    - Requesting Attachments Using Attachments Codes
    - Requesting Attachments Using Questionnaires</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|3.1.1</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU3.1.1/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|6.1.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU6.1.0/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU3.1.1/index.html</t>
+  </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 6.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|6.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU6.1.0/index.html</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 2.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.0.1/index.html</t>
+  </si>
+  <si>
+    <t>US Core Version 3.1.1 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>US Core Version 6.1.0 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>2.1.0-preview</t>
+  </si>
+  <si>
+    <t>DTR Standard Questionnaire</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-dtr/STU2/StructureDefinition-dtr-std-questionnaire.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/StructureDefinition/dtr-std-questionnaire</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/StructureDefinition/dtr-questionnaire-adapt</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-dtr/STU2/StructureDefinition-dtr-questionnaire-adapt.html</t>
+  </si>
+  <si>
+    <t>DTR Questionnaire for adaptive form</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -798,20 +823,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -878,12 +889,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -891,42 +901,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -943,8 +950,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="config"/>
       <sheetName val="meta"/>
@@ -982,9 +992,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1022,7 +1032,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1128,7 +1138,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1270,7 +1280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1299,7 +1309,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1317,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1357,7 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2287,7 +2297,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2317,7 +2327,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2333,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2349,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2373,7 +2383,7 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2401,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A085B-7918-1B43-BDD7-DE64008365F6}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2432,38 +2442,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>129</v>
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>125</v>
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2473,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2507,46 +2517,55 @@
         <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>133</v>
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>176</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{CB84C727-891D-FD46-B678-86467D7F6F7B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A5FB987A-CAC7-F54A-9172-33E3F467A04C}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{ED365816-6A83-4F46-8D71-00D2C595E013}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2555,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2569,158 +2588,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>142</v>
+      <c r="E5" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>171</v>
+        <v>187</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>172</v>
+        <v>186</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>172</v>
+        <v>189</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2733,11 +2752,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:C9"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2821,16 +2840,16 @@
         <v>73</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="234" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2841,7 +2860,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="48" x14ac:dyDescent="0.2">
@@ -2852,7 +2871,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2863,66 +2882,66 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>179</v>
+      <c r="C8" s="23" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C22" s="25"/>
+      <c r="C22"/>
     </row>
     <row r="23" spans="3:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V23" s="6"/>
@@ -3030,34 +3049,34 @@
         <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="O1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="P1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Q1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294BB416-BC58-054A-A9D6-0BD131F2968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD3229-EEC5-614F-8945-D9A70D4A14F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34040" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34040" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
   <si>
     <t>Element</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>DTR Questionnaire for adaptive form</t>
+  </si>
+  <si>
+    <t>Subscriptions R5 Backport (FHIR IG) Release 1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/subscriptions-backport/ImplementationGuide/hl7.fhir.uv.subscriptions-backport|1.1.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/</t>
   </si>
 </sst>
 </file>
@@ -2483,10 +2492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2565,6 +2574,20 @@
         <v>52</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2574,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD3229-EEC5-614F-8945-D9A70D4A14F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF459946-D53A-A346-A7B5-00D819EB635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34040" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71380" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="200">
   <si>
     <t>Element</t>
   </si>
@@ -711,6 +711,24 @@
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/</t>
+  </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 7.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|7.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU7.0.0/index.html</t>
+  </si>
+  <si>
+    <t>US Core Version 7.0.0 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|7.0.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU7.0.0/CapabilityStatement-us-core-client.html</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1003,7 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
-            <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+            <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|3.1.1</v>
           </cell>
         </row>
       </sheetData>
@@ -2418,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A085B-7918-1B43-BDD7-DE64008365F6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2485,6 +2503,23 @@
         <v>52</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2492,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2548,43 +2583,57 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>126</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>125</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>127</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>180</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>181</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>191</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>192</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>193</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2597,7 +2646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF459946-D53A-A346-A7B5-00D819EB635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F147D-851D-A045-980A-770F01AC9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71380" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67760" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -735,9 +735,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -918,9 +925,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -928,36 +935,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -2529,7 +2538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -2646,14 +2655,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
@@ -2764,13 +2773,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>161</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -2824,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C40" sqref="C40"/>

--- a/input/resources-spreadsheet/data-consumer-client.xlsx
+++ b/input/resources-spreadsheet/data-consumer-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F147D-851D-A045-980A-770F01AC9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB626F-40AC-554E-AD54-689C6A403EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67760" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67760" yWindow="500" windowWidth="33900" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -366,9 +366,6 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/</t>
   </si>
   <si>
-    <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -453,19 +450,7 @@
     <t>revinclude_conf</t>
   </si>
   <si>
-    <t>http://www.hl7.org/Special/committees/patientcare</t>
-  </si>
-  <si>
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
   </si>
   <si>
     <t>SHALL,MAY</t>
@@ -665,27 +650,12 @@
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|6.1.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/STU6.1.0/index.html</t>
-  </si>
-  <si>
-    <t>Documentation Templates and Rules 2.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.0.1/index.html</t>
-  </si>
-  <si>
     <t>US Core Version 3.1.1 Client CapabilityStatement</t>
   </si>
   <si>
     <t>US Core Version 6.1.0 Client CapabilityStatement</t>
   </si>
   <si>
-    <t>2.1.0-preview</t>
-  </si>
-  <si>
     <t>DTR Standard Questionnaire</t>
   </si>
   <si>
@@ -719,9 +689,6 @@
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|7.0.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/STU7.0.0/index.html</t>
-  </si>
-  <si>
     <t>US Core Version 7.0.0 Client CapabilityStatement</t>
   </si>
   <si>
@@ -729,6 +696,39 @@
   </si>
   <si>
     <t>https://hl7.org/fhir/us/core/STU7.0.0/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>HL7 International / Payer/Provider Information Exchange Work Group</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/claims</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.1.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.1.0</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 2.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU6.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU7/index.html</t>
   </si>
 </sst>
 </file>
@@ -1326,11 +1326,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1345,7 +1348,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1353,7 +1356,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1377,7 +1380,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1393,12 +1396,12 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2333,7 +2336,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2355,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2363,7 +2366,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2379,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,36 +2406,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -2460,16 +2463,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
         <v>87</v>
@@ -2483,13 +2486,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2500,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2517,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
@@ -2538,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2553,7 +2556,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>87</v>
@@ -2564,13 +2567,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -2578,13 +2581,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" t="s">
-        <v>178</v>
+        <v>172</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -2592,13 +2595,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>199</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -2606,13 +2609,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2620,13 +2623,13 @@
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -2634,13 +2637,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -2655,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2687,49 +2690,49 @@
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>52</v>
@@ -2740,87 +2743,87 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>159</v>
+      <c r="A7" t="s">
+        <v>154</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2921,27 +2924,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="234" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="48" x14ac:dyDescent="0.2">
@@ -2952,73 +2955,73 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.2">
@@ -3118,46 +3121,46 @@
         <v>91</v>
       </c>
       <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3455,7 +3458,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3472,7 +3475,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3480,7 +3483,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
